--- a/projects/quote-process-optimization/cwsell-orderporter-matrix.xlsx
+++ b/projects/quote-process-optimization/cwsell-orderporter-matrix.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://meriplex-my.sharepoint.com/personal/ian_wheeler_meriplex_com/Documents/Documents/Obsidian/Meriplex/projects/quote-process-optimization/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="154" documentId="8_{1FDD8FC5-8E1E-4B79-8201-F4DC12FBEF72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F25CB4AA-3C0B-4B17-93B5-BD5FA0A44414}"/>
+  <xr:revisionPtr revIDLastSave="258" documentId="8_{1FDD8FC5-8E1E-4B79-8201-F4DC12FBEF72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3FEA5678-5C33-401B-A88E-6D97A7161ACD}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="12852" windowWidth="23256" windowHeight="13896" firstSheet="1" activeTab="3" xr2:uid="{B339A25A-8C5D-46F0-BE3F-9AEA7FE442FC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{B339A25A-8C5D-46F0-BE3F-9AEA7FE442FC}"/>
   </bookViews>
   <sheets>
     <sheet name="Basic Branding Field Desc." sheetId="1" r:id="rId1"/>
-    <sheet name="Upload Metadata Field Desc." sheetId="4" r:id="rId2"/>
-    <sheet name="OP Template Field Desc." sheetId="5" r:id="rId3"/>
-    <sheet name="Output Grid Layout Field Desc." sheetId="6" r:id="rId4"/>
-    <sheet name="Setup Email" sheetId="2" r:id="rId5"/>
-    <sheet name="Order Porter Advanced Settings" sheetId="3" r:id="rId6"/>
+    <sheet name="RTF Tags" sheetId="7" r:id="rId2"/>
+    <sheet name="Upload Metadata Field Desc." sheetId="4" r:id="rId3"/>
+    <sheet name="OP Template Field Desc." sheetId="5" r:id="rId4"/>
+    <sheet name="Output Grid Layout Field Desc." sheetId="6" r:id="rId5"/>
+    <sheet name="Setup Email" sheetId="2" r:id="rId6"/>
+    <sheet name="Order Porter Advanced Settings" sheetId="3" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="406">
   <si>
     <t>Field</t>
   </si>
@@ -511,6 +512,766 @@
   <si>
     <t>Displays the total price the customer pays. This price is calculated using the quantity field. 
 Extended amount = [Quantity] x [Override Price]</t>
+  </si>
+  <si>
+    <t>Field Name                                           </t>
+  </si>
+  <si>
+    <t>RTF Tag</t>
+  </si>
+  <si>
+    <t>Customer Information</t>
+  </si>
+  <si>
+    <t>The following tags pull data from the Customer Setup screen on the quote.</t>
+  </si>
+  <si>
+    <t>Account Name</t>
+  </si>
+  <si>
+    <t>[QuoteToCustomer.AccountName]</t>
+  </si>
+  <si>
+    <t>Generates the name of customer's company.</t>
+  </si>
+  <si>
+    <t>Account Number</t>
+  </si>
+  <si>
+    <t>[QuoteToCustomer.AccountNumber]</t>
+  </si>
+  <si>
+    <t>Generates the Quote To account number.</t>
+  </si>
+  <si>
+    <t>Account Picture</t>
+  </si>
+  <si>
+    <t>[QuoteToCustomer.PictureBytes]</t>
+  </si>
+  <si>
+    <t>Generates image from the Account Picture field.</t>
+  </si>
+  <si>
+    <t>First Name</t>
+  </si>
+  <si>
+    <t>[QuoteToCustomer.FirstName]</t>
+  </si>
+  <si>
+    <t>Generates customer's first name.</t>
+  </si>
+  <si>
+    <t>Last Name</t>
+  </si>
+  <si>
+    <t>[QuoteToCustomer.LastName]</t>
+  </si>
+  <si>
+    <t>Generates customer's last name.</t>
+  </si>
+  <si>
+    <t>Address 1</t>
+  </si>
+  <si>
+    <t>[QuoteToCustomer.Address1]</t>
+  </si>
+  <si>
+    <t>Generates customer's Address 1 field.</t>
+  </si>
+  <si>
+    <t>[BillToCustomer.Address1]</t>
+  </si>
+  <si>
+    <t>[ShipToCustomer.Address1]</t>
+  </si>
+  <si>
+    <t>Address 2</t>
+  </si>
+  <si>
+    <t>[QuoteToCustomer.Address2]</t>
+  </si>
+  <si>
+    <t>Generates customer's Address 2 field.</t>
+  </si>
+  <si>
+    <t>Address 3</t>
+  </si>
+  <si>
+    <t>[QuoteToCustomer.Address3]</t>
+  </si>
+  <si>
+    <t>Generates customer's Address 3 field.</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>[QuoteToCustomer.City]</t>
+  </si>
+  <si>
+    <t>Generates customer's city.</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>[QuoteToCustomer.State]</t>
+  </si>
+  <si>
+    <t>Generates customer's state.</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>[QuoteToCustomer.Country]</t>
+  </si>
+  <si>
+    <t>Generates the country name.</t>
+  </si>
+  <si>
+    <t>Postal Code</t>
+  </si>
+  <si>
+    <t>[QuoteToCustomer.PostalCode]</t>
+  </si>
+  <si>
+    <t>Generates customer's zip code.</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>[QuoteToCustomer.EmailAddress]</t>
+  </si>
+  <si>
+    <t>Generates customer's email address.</t>
+  </si>
+  <si>
+    <t>Job Title</t>
+  </si>
+  <si>
+    <t>[QuoteToCustomer.JobTitle]</t>
+  </si>
+  <si>
+    <t>Generates customer's title within their company. </t>
+  </si>
+  <si>
+    <t>Day Phone</t>
+  </si>
+  <si>
+    <t>[QuoteToCustomer.DayPhone]</t>
+  </si>
+  <si>
+    <t>Generates customer's primary phone number.</t>
+  </si>
+  <si>
+    <t>Payment Terms</t>
+  </si>
+  <si>
+    <t>[QuoteToCustomer.PaymentTerms]</t>
+  </si>
+  <si>
+    <t>Generates the payment terms. </t>
+  </si>
+  <si>
+    <t>Price Level</t>
+  </si>
+  <si>
+    <t>[QuoteToCustomer.PriceLevel]</t>
+  </si>
+  <si>
+    <t>Generates the customer price level.</t>
+  </si>
+  <si>
+    <t>Your Organization Information</t>
+  </si>
+  <si>
+    <t>The following tags pull data from the Company screen in Organization Setup (Settings &gt; Organization Setup &gt; Company.</t>
+  </si>
+  <si>
+    <t>[Company.Address1]</t>
+  </si>
+  <si>
+    <t>Generates the street address of the organization.</t>
+  </si>
+  <si>
+    <t>[Company.Address2]</t>
+  </si>
+  <si>
+    <t>Generates the second line of the street address. Usually pertains to an office location inside a building (e.g., Suite 100 or Studio 2).</t>
+  </si>
+  <si>
+    <t>[Company.Address3]</t>
+  </si>
+  <si>
+    <t>Generates a third street address line, if necessary. This is rarely used.</t>
+  </si>
+  <si>
+    <t>[Company.City]</t>
+  </si>
+  <si>
+    <t>Generates the city name.</t>
+  </si>
+  <si>
+    <t>Company Logo</t>
+  </si>
+  <si>
+    <t>[Company.LogoBytes]</t>
+  </si>
+  <si>
+    <t>Generates the picture loaded into Company Logo</t>
+  </si>
+  <si>
+    <t>Company Name</t>
+  </si>
+  <si>
+    <t>[Company.CompanyName]</t>
+  </si>
+  <si>
+    <t>Generates the company name.</t>
+  </si>
+  <si>
+    <t>[Company.Country]</t>
+  </si>
+  <si>
+    <t>Fax Number</t>
+  </si>
+  <si>
+    <t>[Company.FaxPhone]</t>
+  </si>
+  <si>
+    <t>Generates the fax phone number.</t>
+  </si>
+  <si>
+    <t>Phone Number</t>
+  </si>
+  <si>
+    <t>[Company.Phone]</t>
+  </si>
+  <si>
+    <t>Generates the company phone number.</t>
+  </si>
+  <si>
+    <t>[Company.PostalCode]</t>
+  </si>
+  <si>
+    <t>Generates the Company zip code.</t>
+  </si>
+  <si>
+    <t>[Company.State]</t>
+  </si>
+  <si>
+    <t>Generates the State (Washington, Flordia, etc) filled out in Company.</t>
+  </si>
+  <si>
+    <t>Tax ID</t>
+  </si>
+  <si>
+    <t>[Company.Taxid]</t>
+  </si>
+  <si>
+    <t>Generates the company Tax ID (typically the ABN number for Australian users).</t>
+  </si>
+  <si>
+    <t>Website</t>
+  </si>
+  <si>
+    <t>[Company.Website]</t>
+  </si>
+  <si>
+    <t>Generates the company URL address filled out.</t>
+  </si>
+  <si>
+    <t>Your Office Location Information</t>
+  </si>
+  <si>
+    <t>The following tags pull data from the Locations screen in Organization Setup (Settings &gt; Organization Setup &gt; Locations. The specific Location information is pulled based on the Location field on the Quote Setup screen of the quote. </t>
+  </si>
+  <si>
+    <t>Address1</t>
+  </si>
+  <si>
+    <t>[Location.Address1]</t>
+  </si>
+  <si>
+    <t>Generates the street address.</t>
+  </si>
+  <si>
+    <t>Address2</t>
+  </si>
+  <si>
+    <t>[Location.Address2]</t>
+  </si>
+  <si>
+    <t>Generates the second line of the street address. This typically is associated with an office location inside a building (e.g., Suite 100, Studio 2, etc.).</t>
+  </si>
+  <si>
+    <t>Address3</t>
+  </si>
+  <si>
+    <t>[Location.Address3]</t>
+  </si>
+  <si>
+    <t>Generates a third street address line, if necessary.</t>
+  </si>
+  <si>
+    <t>[Location.City]</t>
+  </si>
+  <si>
+    <t>[Location.Country]</t>
+  </si>
+  <si>
+    <t>Fax</t>
+  </si>
+  <si>
+    <t>[Location.FaxPhone]</t>
+  </si>
+  <si>
+    <t>Location Name</t>
+  </si>
+  <si>
+    <t>[Location.LocationName]</t>
+  </si>
+  <si>
+    <t>Generates the location name.</t>
+  </si>
+  <si>
+    <t>Location Picture</t>
+  </si>
+  <si>
+    <t>[Location.LogoBytes]</t>
+  </si>
+  <si>
+    <t>Generates the picture loaded into Location Picture.</t>
+  </si>
+  <si>
+    <t>Postal Code </t>
+  </si>
+  <si>
+    <t>[Location.PostalCode]</t>
+  </si>
+  <si>
+    <t>Generates the company zip code.</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>[Location.Phone]</t>
+  </si>
+  <si>
+    <t>Generates the phone number of the location.</t>
+  </si>
+  <si>
+    <t>[Location.State]</t>
+  </si>
+  <si>
+    <t>Generates the state (e.g., Washington, Florida, etc.) that is entered for that location.</t>
+  </si>
+  <si>
+    <t>[Location.Taxid]</t>
+  </si>
+  <si>
+    <t>Generates the Tax ID for the location (typically the ABN number for Australian users).</t>
+  </si>
+  <si>
+    <t>[Location.WebSite]</t>
+  </si>
+  <si>
+    <t>Generates the website URL of that location.</t>
+  </si>
+  <si>
+    <t>Primary Rep and Inside Rep Information</t>
+  </si>
+  <si>
+    <t>Full Name</t>
+  </si>
+  <si>
+    <t>[Rep.FullName]</t>
+  </si>
+  <si>
+    <t>Generates the first and last name of the primary rep associated with the quote. </t>
+  </si>
+  <si>
+    <t>[Rep.EmailAddress]</t>
+  </si>
+  <si>
+    <t>Generates the email address of the primary rep associated with the quote. </t>
+  </si>
+  <si>
+    <t>[Rep.FirstName]</t>
+  </si>
+  <si>
+    <t>Generates the first name of the primary rep associated with the quote.</t>
+  </si>
+  <si>
+    <t>[Rep.JobTitle]</t>
+  </si>
+  <si>
+    <t>Generates the job title of the primary rep associated with the quote.</t>
+  </si>
+  <si>
+    <t>[Rep.LastName]</t>
+  </si>
+  <si>
+    <t>Generates the last name of the primary rep associated with the quote.</t>
+  </si>
+  <si>
+    <t>Mobile Phone</t>
+  </si>
+  <si>
+    <t>[Rep.MobilePhone]</t>
+  </si>
+  <si>
+    <t>Generates the mobile phone number of the primary rep associated with the quote</t>
+  </si>
+  <si>
+    <t>[Rep.Phone]</t>
+  </si>
+  <si>
+    <t>Generates the phone number of the primary rep associated with the quote.</t>
+  </si>
+  <si>
+    <t>Presented Name</t>
+  </si>
+  <si>
+    <t>[Rep.PresentationName] or [InsideRepUser.PresentationName]</t>
+  </si>
+  <si>
+    <t>Generates the name entered in the Presentation Name field on the Users screen that is associated with the primary rep or inside rep on the quote. </t>
+  </si>
+  <si>
+    <t>Sign Here</t>
+  </si>
+  <si>
+    <t>[Rep.SignatureBytes] or [InsideRepUser.SignatureBytes]</t>
+  </si>
+  <si>
+    <t>Generates the signature image of the primary rep or inside rep associated with the quote.  </t>
+  </si>
+  <si>
+    <t>User Picture</t>
+  </si>
+  <si>
+    <t>[Rep.PictureBytes] or [InsideRepUser.PictureBytes]</t>
+  </si>
+  <si>
+    <t>Generates the user picture for the quote's primary rep or inside rep.</t>
+  </si>
+  <si>
+    <t>Item Level Information</t>
+  </si>
+  <si>
+    <t>Product Description</t>
+  </si>
+  <si>
+    <t>[LongDescription]</t>
+  </si>
+  <si>
+    <t>Generates the Product Description (Long Description) of the line item.</t>
+  </si>
+  <si>
+    <t>Z_customString1</t>
+  </si>
+  <si>
+    <t>[Z_customString1]</t>
+  </si>
+  <si>
+    <t>Generates the Quote Items List.Z_customString1 from line item.</t>
+  </si>
+  <si>
+    <t>Z_custom Date 1</t>
+  </si>
+  <si>
+    <t>[Z_customDate1!MM/dd/yyyy]</t>
+  </si>
+  <si>
+    <t>Generates item-level custom date, minus the timestamp.</t>
+  </si>
+  <si>
+    <t>Contract Start Date</t>
+  </si>
+  <si>
+    <t>[ContractStartDate]</t>
+  </si>
+  <si>
+    <t>Generates the Contract Start Date field data. This tag only works with the Contract Start Date field at the item level. If you want to display the entire quote's contract start date with no time, enter the Contract Start Date tag in the Quote Level information section. This pulls the Contract Start Date field from Quote Setup.</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>[Quantity]</t>
+  </si>
+  <si>
+    <t>Generates the quantity of the line item.</t>
+  </si>
+  <si>
+    <t>Discount</t>
+  </si>
+  <si>
+    <t>[Discount]</t>
+  </si>
+  <si>
+    <t>Generates the discount percentage removed from the suggested price.</t>
+  </si>
+  <si>
+    <t>[RecurringDiscount]</t>
+  </si>
+  <si>
+    <t>Generates the discount percentage applied to a recurring payment. </t>
+  </si>
+  <si>
+    <t>Discount Amount</t>
+  </si>
+  <si>
+    <t>[PrintedDiscountAmount]</t>
+  </si>
+  <si>
+    <t>Generates the dollar amount removed from the suggested price.</t>
+  </si>
+  <si>
+    <t>[PrintedRecurringDiscountAmount]</t>
+  </si>
+  <si>
+    <t>Generates the discounted dollar amount applied to a recurring payment.</t>
+  </si>
+  <si>
+    <t>Tab Level Information</t>
+  </si>
+  <si>
+    <t>Tab Total </t>
+  </si>
+  <si>
+    <t>[TypedParent.TabTotal]</t>
+  </si>
+  <si>
+    <t>Generates the tab's total value.</t>
+  </si>
+  <si>
+    <t>Tab Name</t>
+  </si>
+  <si>
+    <t>[TypedParent.TabName]</t>
+  </si>
+  <si>
+    <t>Generates the tab name.</t>
+  </si>
+  <si>
+    <t>Recurring Total</t>
+  </si>
+  <si>
+    <t>[TypedParent.RecurringTotal]</t>
+  </si>
+  <si>
+    <t>Generate's the tab's recurring total name.</t>
+  </si>
+  <si>
+    <t>Z _custom Tab String 1</t>
+  </si>
+  <si>
+    <t>[TypedParent.Z_customTabString1]</t>
+  </si>
+  <si>
+    <t>Generates the custom string 1 on Tab level. </t>
+  </si>
+  <si>
+    <t>[TypedParent.Discount]</t>
+  </si>
+  <si>
+    <t>Quote Level Information</t>
+  </si>
+  <si>
+    <t>Quote Name</t>
+  </si>
+  <si>
+    <t>[TypedParent.TypedParent.QuoteName]</t>
+  </si>
+  <si>
+    <t>Generates name of Quote.</t>
+  </si>
+  <si>
+    <t>QuoteReadableId</t>
+  </si>
+  <si>
+    <t>[TypedParent.TypedParent.PrintedquoteReadableID]</t>
+  </si>
+  <si>
+    <t>Generates the Quote Number.</t>
+  </si>
+  <si>
+    <t>Quote Total</t>
+  </si>
+  <si>
+    <t>[TypedParent.TypedParent.QuoteTotal]</t>
+  </si>
+  <si>
+    <t>Generates the quote total without formatting. For example, 2675.00</t>
+  </si>
+  <si>
+    <t>[TypedParent.TypedParent.PrintedQuoteTotal]</t>
+  </si>
+  <si>
+    <t>Generates the quote total in a currency format with currency sign. For example, $2,675.00.</t>
+  </si>
+  <si>
+    <t>z _custom Quote String 1</t>
+  </si>
+  <si>
+    <t>[TypedParent.TypedParent.z_customQuoteString1]</t>
+  </si>
+  <si>
+    <t>Generates the Quote Custom String 1 field data. </t>
+  </si>
+  <si>
+    <t>[TypedParent.TypedParent.ContractStartDate!MM/dd/yyyy]</t>
+  </si>
+  <si>
+    <t>Generates the Contract Start Date field data. </t>
+  </si>
+  <si>
+    <t>Contract End Date</t>
+  </si>
+  <si>
+    <t>[ContractEndDate]</t>
+  </si>
+  <si>
+    <t>Generates the Contract End Date field data.</t>
+  </si>
+  <si>
+    <t>Order Porter Signed Date</t>
+  </si>
+  <si>
+    <t>[OrderPorterSignedDate!MM/dd/yyyy]</t>
+  </si>
+  <si>
+    <t>Generates the date the Order Porter was signed. If it is not signed, the date 01/01/0001 is generated. </t>
+  </si>
+  <si>
+    <t>[TypedParent.TypedParent.RecurringTotal]</t>
+  </si>
+  <si>
+    <t>Generates the Quote recurring total field data. </t>
+  </si>
+  <si>
+    <t>z _custom Quote Date 1</t>
+  </si>
+  <si>
+    <t>[TypedParent.TypedParent.Z_customQuoteDate1!MM/dd/yyyy]</t>
+  </si>
+  <si>
+    <t>Generates the Quote Custom Date 1 field data. </t>
+  </si>
+  <si>
+    <t>Generates the dollar amount removed from the quote total. This amount displays with a currency symbol. </t>
+  </si>
+  <si>
+    <t>Recurring Discount Amount</t>
+  </si>
+  <si>
+    <t>Generates the discounted dollar amount applied to the total recurring payment. This amount displays with a currency symbol.</t>
+  </si>
+  <si>
+    <t>Expiration Date</t>
+  </si>
+  <si>
+    <t>[TypedParent.TypedParent.ExpirationDate!MM/dd/yyyy] </t>
+  </si>
+  <si>
+    <t>Generates the Quote expiration date field data. </t>
+  </si>
+  <si>
+    <t>Create Date</t>
+  </si>
+  <si>
+    <t>[TypedParent.TypedParent.Createdate!MM/dd/yyyy]</t>
+  </si>
+  <si>
+    <t>Generates the Quote creation date field data. </t>
+  </si>
+  <si>
+    <t>The following tags pull data from the Users screen in Organization Setup (Settings &gt; Organization Setup &gt; Users. The specific User information is pulled based on the Primary Rep and Inside Rep fields on the Quote Setup screen of the quote. </t>
+  </si>
+  <si>
+    <t>The following tags pull data from the fields on the Product Details screen. Some fields here are hidden by default. </t>
+  </si>
+  <si>
+    <t>The following tags pull data from the fields on the Tab Details screen. Some fields here are hidden by default. </t>
+  </si>
+  <si>
+    <t>The following tags pull data from the fields on the Quote Setup screen. Some fields are hidden by default. These tags go in the HTML Notes 1 field on the Quote Setup screen. </t>
+  </si>
+  <si>
+    <t>Generates the Suggested Discount percent. 
+Note: This percentage is pulled from the Sugg Disc field in the quote header. The field will not display a percentage if a Suggested Price is not entered for any items. </t>
+  </si>
+  <si>
+    <t>[PictureBytes]</t>
+  </si>
+  <si>
+    <t>Generates the image in the Picture field on the Product Details screen of an image. </t>
+  </si>
+  <si>
+    <t>[ThumbnailBytes]</t>
+  </si>
+  <si>
+    <t>Generates the image in the Thumbnail field on the Product Details screen of an image.</t>
+  </si>
+  <si>
+    <t>[Z_customPicture1]</t>
+  </si>
+  <si>
+    <t>Generates the image in the Custom Picture 1 field. The field is hidden by default. Refer to Reveal Additional Fields for more information.</t>
+  </si>
+  <si>
+    <t>[Z_customPicture2]</t>
+  </si>
+  <si>
+    <t>Generates the image in the Custom Picture 2 field. Refer to Reveal Additional Fields for more information.</t>
+  </si>
+  <si>
+    <t>[Z_customPicture3]</t>
+  </si>
+  <si>
+    <t>Generates the image in the Custom Picture 3 field. Refer to Reveal Additional Fields for more information.</t>
+  </si>
+  <si>
+    <t>[Z_customPicture4]</t>
+  </si>
+  <si>
+    <t>Generates the image in the Custom Picture 4 field. Refer to Reveal Additional Fields for more information.</t>
+  </si>
+  <si>
+    <t>[Rep.PictureBytes]</t>
+  </si>
+  <si>
+    <t>Generates the image in the Image field on the Users screen for the sales representative in the Primary Rep field. </t>
+  </si>
+  <si>
+    <t>Generates the customer logo image in the Quote To tab Account Picture field on the Customer Setup tab. </t>
+  </si>
+  <si>
+    <t>Generates the company logo image in the Company Logo field in Company Setup. </t>
+  </si>
+  <si>
+    <t>[TypedParent.PictureBytes]</t>
+  </si>
+  <si>
+    <t>Generates the Picture field on the Tab Details screen. Click Edit Tab to display the Tab Details screen. The Picture field is hidden by default. Refer to Reveal Additional Fields for more information. </t>
+  </si>
+  <si>
+    <t>Generates the location logo image for the location of the sales representative specified in Users. Refer to Location for information on uploading location images. </t>
+  </si>
+  <si>
+    <t>Field Name</t>
+  </si>
+  <si>
+    <t>This following lists RTF image tags and explains how to use them in your quotes.</t>
+  </si>
+  <si>
+    <t>RTF Picture Tags</t>
   </si>
 </sst>
 </file>
@@ -604,19 +1365,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -624,10 +1384,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -637,6 +1394,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -644,25 +1413,58 @@
   </cellStyles>
   <dxfs count="34">
     <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
         <b/>
       </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Aptos Display"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
         <b/>
       </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Aptos Display"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -675,54 +1477,9 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color theme="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <top style="thin">
           <color theme="1"/>
         </top>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Aptos Display"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0" tint="-0.14999847407452621"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="1"/>
-        </left>
-        <right style="thin">
-          <color theme="1"/>
-        </right>
-        <top/>
-        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -733,13 +1490,6 @@
         <bottom style="thin">
           <color theme="1"/>
         </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color theme="1"/>
-        </top>
       </border>
     </dxf>
     <dxf>
@@ -778,17 +1528,29 @@
       </border>
     </dxf>
     <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color theme="1"/>
-        </bottom>
-      </border>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <border outline="0">
         <top style="thin">
           <color theme="1"/>
         </top>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -827,8 +1589,38 @@
       </border>
     </dxf>
     <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
+        <b/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
         <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -839,68 +1631,29 @@
         <family val="2"/>
         <scheme val="major"/>
       </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="1"/>
+        </left>
+        <right style="thin">
+          <color theme="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Aptos Display"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <name val="Aptos Display"/>
-        <family val="2"/>
-        <scheme val="major"/>
-      </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -921,9 +1674,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -931,6 +1681,25 @@
         <b/>
       </font>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <name val="Aptos Display"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -946,17 +1715,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A60A45FE-F477-4977-ACFF-FD0849629C58}" name="Table1" displayName="Table1" ref="A1:B7" totalsRowShown="0" headerRowDxfId="23" dataDxfId="31">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A60A45FE-F477-4977-ACFF-FD0849629C58}" name="Table1" displayName="Table1" ref="A1:B7" totalsRowShown="0" headerRowDxfId="33" dataDxfId="32">
   <autoFilter ref="A1:B7" xr:uid="{A60A45FE-F477-4977-ACFF-FD0849629C58}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{860AFF9F-5B7A-4BEB-A395-81653090C71A}" name="Field" dataDxfId="33"/>
-    <tableColumn id="2" xr3:uid="{D904EF0C-583A-4E02-A5E1-6F8D63CEA490}" name="Description" dataDxfId="32"/>
+    <tableColumn id="1" xr3:uid="{860AFF9F-5B7A-4BEB-A395-81653090C71A}" name="Field" dataDxfId="31"/>
+    <tableColumn id="2" xr3:uid="{D904EF0C-583A-4E02-A5E1-6F8D63CEA490}" name="Description" dataDxfId="30"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium22" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{D66DBD13-5AD3-4EF2-AF7C-F9C808B27580}" name="Table4" displayName="Table4" ref="A1:B11" totalsRowShown="0">
   <autoFilter ref="A1:B11" xr:uid="{D66DBD13-5AD3-4EF2-AF7C-F9C808B27580}"/>
   <tableColumns count="2">
@@ -967,69 +1736,165 @@
 </table>
 </file>
 
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{BD6AE448-F477-4369-B12A-405676C89426}" name="Table5" displayName="Table5" ref="A1:B14" totalsRowShown="0" headerRowDxfId="18" dataDxfId="19">
+<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{BD6AE448-F477-4369-B12A-405676C89426}" name="Table5" displayName="Table5" ref="A1:B14" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
   <autoFilter ref="A1:B14" xr:uid="{BD6AE448-F477-4369-B12A-405676C89426}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{290D9CED-9900-47AE-A75B-B21F03CFB6C1}" name="Field" dataDxfId="21"/>
-    <tableColumn id="2" xr3:uid="{430288DC-DDE4-4945-843A-9B0A0B5A3A4C}" name="Description" dataDxfId="20"/>
+    <tableColumn id="1" xr3:uid="{290D9CED-9900-47AE-A75B-B21F03CFB6C1}" name="Field" dataDxfId="27"/>
+    <tableColumn id="2" xr3:uid="{430288DC-DDE4-4945-843A-9B0A0B5A3A4C}" name="Description" dataDxfId="26"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium22" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{1E3441A8-93AA-426F-BD81-9AADA1D002BE}" name="Table6" displayName="Table6" ref="A2:B9" totalsRowShown="0" headerRowDxfId="17" dataDxfId="0" headerRowBorderDxfId="15" tableBorderDxfId="16">
+<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{1E3441A8-93AA-426F-BD81-9AADA1D002BE}" name="Table6" displayName="Table6" ref="A2:B9" totalsRowShown="0" headerRowDxfId="25" dataDxfId="23" headerRowBorderDxfId="24" tableBorderDxfId="22">
   <autoFilter ref="A2:B9" xr:uid="{1E3441A8-93AA-426F-BD81-9AADA1D002BE}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{256B35F5-C029-4286-AF70-489519C1E5A9}" name="Field" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{7C86504B-65BA-46AA-84A9-0AC77450493E}" name="Description" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{256B35F5-C029-4286-AF70-489519C1E5A9}" name="Field" dataDxfId="21"/>
+    <tableColumn id="2" xr3:uid="{7C86504B-65BA-46AA-84A9-0AC77450493E}" name="Description" dataDxfId="20"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium22" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{E869266C-40EF-4A49-A05A-6F4B25E0BFA8}" name="Table68" displayName="Table68" ref="A12:B21" totalsRowShown="0" headerRowDxfId="14" dataDxfId="11" headerRowBorderDxfId="12" tableBorderDxfId="13">
+<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{E869266C-40EF-4A49-A05A-6F4B25E0BFA8}" name="Table68" displayName="Table68" ref="A12:B21" totalsRowShown="0" headerRowDxfId="19" dataDxfId="17" headerRowBorderDxfId="18" tableBorderDxfId="16">
   <autoFilter ref="A12:B21" xr:uid="{E869266C-40EF-4A49-A05A-6F4B25E0BFA8}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{0BD9B927-4427-4094-B312-DE8EB8DDEC7E}" name="Field" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{A62E4DE7-C8F4-4CAE-BA1C-B07BF95B22C6}" name="Description" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{0BD9B927-4427-4094-B312-DE8EB8DDEC7E}" name="Field" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{A62E4DE7-C8F4-4CAE-BA1C-B07BF95B22C6}" name="Description" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium22" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{B24D9A44-FBBA-4AD0-ACA1-29CC7E13D879}" name="Table689" displayName="Table689" ref="A24:B31" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9" headerRowBorderDxfId="7" tableBorderDxfId="8">
+<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{B24D9A44-FBBA-4AD0-ACA1-29CC7E13D879}" name="Table689" displayName="Table689" ref="A24:B31" totalsRowShown="0" headerRowDxfId="13" dataDxfId="11" headerRowBorderDxfId="12" tableBorderDxfId="10">
   <autoFilter ref="A24:B31" xr:uid="{B24D9A44-FBBA-4AD0-ACA1-29CC7E13D879}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{0C4D9898-7D01-441B-956C-BA4A4BD04398}" name="Field" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{7B934901-2768-4A7E-9E1B-56B666A914F9}" name="Description" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{0C4D9898-7D01-441B-956C-BA4A4BD04398}" name="Field" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{7B934901-2768-4A7E-9E1B-56B666A914F9}" name="Description" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium22" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{9CA0363B-49BF-460D-BFBC-90F1F1B8C251}" name="Table2" displayName="Table2" ref="A1:B15" totalsRowShown="0" headerRowDxfId="30" dataDxfId="29">
+<file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{9CA0363B-49BF-460D-BFBC-90F1F1B8C251}" name="Table2" displayName="Table2" ref="A1:B15" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
   <autoFilter ref="A1:B15" xr:uid="{9CA0363B-49BF-460D-BFBC-90F1F1B8C251}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{8AA9CE5C-E63F-4C81-8160-05654EE7976C}" name="Field" dataDxfId="27"/>
-    <tableColumn id="2" xr3:uid="{9414F715-B255-4534-9607-0B539E9C7428}" name="Description" dataDxfId="28"/>
+    <tableColumn id="1" xr3:uid="{8AA9CE5C-E63F-4C81-8160-05654EE7976C}" name="Field" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{9414F715-B255-4534-9607-0B539E9C7428}" name="Description" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium22" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{7CDFA9FE-A9FD-44EF-8A01-3BD6E2CE1ED7}" name="Table3" displayName="Table3" ref="A1:B14" totalsRowShown="0" headerRowDxfId="22" dataDxfId="24">
+<file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{7CDFA9FE-A9FD-44EF-8A01-3BD6E2CE1ED7}" name="Table3" displayName="Table3" ref="A1:B14" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
   <autoFilter ref="A1:B14" xr:uid="{7CDFA9FE-A9FD-44EF-8A01-3BD6E2CE1ED7}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{8E713C43-FF19-4EB3-B05A-4F19FD02E8F8}" name="Field" dataDxfId="26"/>
-    <tableColumn id="2" xr3:uid="{67F5821D-407E-4945-925A-10CFCA243964}" name="Description" dataDxfId="25"/>
+    <tableColumn id="1" xr3:uid="{8E713C43-FF19-4EB3-B05A-4F19FD02E8F8}" name="Field" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{67F5821D-407E-4945-925A-10CFCA243964}" name="Description" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium22" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{A04EAAD0-6A3E-417D-BC22-C153969C18D4}" name="Table9" displayName="Table9" ref="A4:C23" totalsRowShown="0">
+  <autoFilter ref="A4:C23" xr:uid="{A04EAAD0-6A3E-417D-BC22-C153969C18D4}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{9454D78C-A052-4C12-9DF0-837F585CC191}" name="Field Name                                           "/>
+    <tableColumn id="2" xr3:uid="{E702CEC4-2269-4F3D-8A40-CE14E75C2C1A}" name="RTF Tag"/>
+    <tableColumn id="3" xr3:uid="{E4143711-02DA-4891-AB1A-2C0051F8FE41}" name="Description"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{9558C7A4-C038-4CD3-8348-EE806E9B3A3D}" name="Table10" displayName="Table10" ref="A28:C41" totalsRowShown="0">
+  <autoFilter ref="A28:C41" xr:uid="{9558C7A4-C038-4CD3-8348-EE806E9B3A3D}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{26719110-9AB7-42DC-A02F-22956A9F96B0}" name="Field Name                                           "/>
+    <tableColumn id="2" xr3:uid="{610B3AE8-BE2D-475B-9E73-3F54FBD2679B}" name="RTF Tag"/>
+    <tableColumn id="3" xr3:uid="{4700F3C5-F396-405A-A479-CC2D0FD73056}" name="Description"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{1425CAC7-6935-4851-AE82-29BC47D0CB38}" name="Table11" displayName="Table11" ref="A46:C59" totalsRowShown="0">
+  <autoFilter ref="A46:C59" xr:uid="{1425CAC7-6935-4851-AE82-29BC47D0CB38}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{F6BCFBC1-B7AA-47FB-A597-764A37F17643}" name="Field Name                                           "/>
+    <tableColumn id="2" xr3:uid="{0CD9E447-4D38-41C4-A444-25298CC680DB}" name="RTF Tag"/>
+    <tableColumn id="3" xr3:uid="{ADFA45B9-2F54-4CBB-8128-F45A2743F6B2}" name="Description"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{C4F9C93A-0C83-4E43-B2C6-A22227E6F373}" name="Table12" displayName="Table12" ref="A64:C74" totalsRowShown="0">
+  <autoFilter ref="A64:C74" xr:uid="{C4F9C93A-0C83-4E43-B2C6-A22227E6F373}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{EC975C19-95C5-4996-BBDB-9DCCF30A952B}" name="Field Name                                           "/>
+    <tableColumn id="2" xr3:uid="{6DB23A95-AB66-40F1-A458-59299A4D87F8}" name="RTF Tag"/>
+    <tableColumn id="3" xr3:uid="{C7FADA39-077F-4AFF-B8BF-EE49E870F46B}" name="Description"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{4BD07571-B2D7-4CAA-8996-B7B0AF132BA9}" name="Table13" displayName="Table13" ref="A79:C88" totalsRowShown="0">
+  <autoFilter ref="A79:C88" xr:uid="{4BD07571-B2D7-4CAA-8996-B7B0AF132BA9}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{75668A2A-2530-435B-8647-5A54D7090443}" name="Field Name                                           "/>
+    <tableColumn id="2" xr3:uid="{1CDB4049-E6AE-4E13-A17A-12D45B87AA0E}" name="RTF Tag"/>
+    <tableColumn id="3" xr3:uid="{95287A8F-0E9A-4526-907C-56BCB632B2FE}" name="Description"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{8C24F842-C64F-42F2-AA45-DCA77FBD5905}" name="Table14" displayName="Table14" ref="A93:C98" totalsRowShown="0">
+  <autoFilter ref="A93:C98" xr:uid="{8C24F842-C64F-42F2-AA45-DCA77FBD5905}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{5B415908-149A-4275-9077-21C85856D60E}" name="Field Name                                           "/>
+    <tableColumn id="2" xr3:uid="{AABA1B43-A8E4-4C71-B38D-D32322C0FEE8}" name="RTF Tag"/>
+    <tableColumn id="3" xr3:uid="{118735BB-116D-4402-8B79-740F7A1A9EFB}" name="Description"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{77A92E7F-BEB3-4811-B201-0B56DA66A9DC}" name="Table15" displayName="Table15" ref="A104:C118" totalsRowShown="0">
+  <autoFilter ref="A104:C118" xr:uid="{77A92E7F-BEB3-4811-B201-0B56DA66A9DC}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{CC5CCDE6-6A86-445A-A12C-6392880711FF}" name="Field Name                                           "/>
+    <tableColumn id="2" xr3:uid="{0F3849DC-20BE-422E-BD8C-096912E57EF6}" name="RTF Tag"/>
+    <tableColumn id="3" xr3:uid="{8E8E717F-A5B9-47B9-886F-38831DD7478A}" name="Description"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{26E9A291-41B2-4A7C-A35B-9C810498E82B}" name="Table16" displayName="Table16" ref="A123:C134" totalsRowShown="0">
+  <autoFilter ref="A123:C134" xr:uid="{26E9A291-41B2-4A7C-A35B-9C810498E82B}"/>
+  <tableColumns count="3">
+    <tableColumn id="3" xr3:uid="{00F7E98B-6E85-4BF9-A5AB-A5D13F32B00E}" name="Field Name"/>
+    <tableColumn id="1" xr3:uid="{3C9A9AC3-90B7-40C6-9BC4-7EB999A90366}" name="RTF Tag"/>
+    <tableColumn id="2" xr3:uid="{1A386B67-3A3D-47CC-8CCD-E163606B37F2}" name="Description"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -1358,64 +2223,63 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="100.7109375" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="100.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1428,6 +2292,1290 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B89CAA6-2E6C-4D3E-9FD2-9AE37BFB8475}">
+  <dimension ref="A1:C134"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A121" sqref="A121:C121"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="57.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="255.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="14"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>153</v>
+      </c>
+      <c r="B4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>157</v>
+      </c>
+      <c r="B5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C5" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>160</v>
+      </c>
+      <c r="B6" t="s">
+        <v>161</v>
+      </c>
+      <c r="C6" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>163</v>
+      </c>
+      <c r="B7" t="s">
+        <v>164</v>
+      </c>
+      <c r="C7" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>166</v>
+      </c>
+      <c r="B8" t="s">
+        <v>167</v>
+      </c>
+      <c r="C8" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B9" t="s">
+        <v>170</v>
+      </c>
+      <c r="C9" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>172</v>
+      </c>
+      <c r="B10" t="s">
+        <v>173</v>
+      </c>
+      <c r="C10" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>172</v>
+      </c>
+      <c r="B11" t="s">
+        <v>175</v>
+      </c>
+      <c r="C11" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>172</v>
+      </c>
+      <c r="B12" t="s">
+        <v>176</v>
+      </c>
+      <c r="C12" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>177</v>
+      </c>
+      <c r="B13" t="s">
+        <v>178</v>
+      </c>
+      <c r="C13" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>180</v>
+      </c>
+      <c r="B14" t="s">
+        <v>181</v>
+      </c>
+      <c r="C14" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>183</v>
+      </c>
+      <c r="B15" t="s">
+        <v>184</v>
+      </c>
+      <c r="C15" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>186</v>
+      </c>
+      <c r="B16" t="s">
+        <v>187</v>
+      </c>
+      <c r="C16" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>189</v>
+      </c>
+      <c r="B17" t="s">
+        <v>190</v>
+      </c>
+      <c r="C17" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>192</v>
+      </c>
+      <c r="B18" t="s">
+        <v>193</v>
+      </c>
+      <c r="C18" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>195</v>
+      </c>
+      <c r="B19" t="s">
+        <v>196</v>
+      </c>
+      <c r="C19" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>198</v>
+      </c>
+      <c r="B20" t="s">
+        <v>199</v>
+      </c>
+      <c r="C20" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>201</v>
+      </c>
+      <c r="B21" t="s">
+        <v>202</v>
+      </c>
+      <c r="C21" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>204</v>
+      </c>
+      <c r="B22" t="s">
+        <v>205</v>
+      </c>
+      <c r="C22" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>207</v>
+      </c>
+      <c r="B23" t="s">
+        <v>208</v>
+      </c>
+      <c r="C23" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="21" x14ac:dyDescent="0.35">
+      <c r="A25" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="B25" s="15"/>
+      <c r="C25" s="15"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="14"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>153</v>
+      </c>
+      <c r="B28" t="s">
+        <v>154</v>
+      </c>
+      <c r="C28" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>172</v>
+      </c>
+      <c r="B29" t="s">
+        <v>212</v>
+      </c>
+      <c r="C29" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>177</v>
+      </c>
+      <c r="B30" t="s">
+        <v>214</v>
+      </c>
+      <c r="C30" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>180</v>
+      </c>
+      <c r="B31" t="s">
+        <v>216</v>
+      </c>
+      <c r="C31" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>183</v>
+      </c>
+      <c r="B32" t="s">
+        <v>218</v>
+      </c>
+      <c r="C32" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>220</v>
+      </c>
+      <c r="B33" t="s">
+        <v>221</v>
+      </c>
+      <c r="C33" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>223</v>
+      </c>
+      <c r="B34" t="s">
+        <v>224</v>
+      </c>
+      <c r="C34" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>189</v>
+      </c>
+      <c r="B35" t="s">
+        <v>226</v>
+      </c>
+      <c r="C35" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>227</v>
+      </c>
+      <c r="B36" t="s">
+        <v>228</v>
+      </c>
+      <c r="C36" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>230</v>
+      </c>
+      <c r="B37" t="s">
+        <v>231</v>
+      </c>
+      <c r="C37" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>192</v>
+      </c>
+      <c r="B38" t="s">
+        <v>233</v>
+      </c>
+      <c r="C38" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>186</v>
+      </c>
+      <c r="B39" t="s">
+        <v>235</v>
+      </c>
+      <c r="C39" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>237</v>
+      </c>
+      <c r="B40" t="s">
+        <v>238</v>
+      </c>
+      <c r="C40" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>240</v>
+      </c>
+      <c r="B41" t="s">
+        <v>241</v>
+      </c>
+      <c r="C41" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="21" x14ac:dyDescent="0.35">
+      <c r="A43" s="15" t="s">
+        <v>243</v>
+      </c>
+      <c r="B43" s="15"/>
+      <c r="C43" s="15"/>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="13" t="s">
+        <v>244</v>
+      </c>
+      <c r="B44" s="13"/>
+      <c r="C44" s="13"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="14"/>
+      <c r="B45" s="14"/>
+      <c r="C45" s="14"/>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>153</v>
+      </c>
+      <c r="B46" t="s">
+        <v>154</v>
+      </c>
+      <c r="C46" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>245</v>
+      </c>
+      <c r="B47" t="s">
+        <v>246</v>
+      </c>
+      <c r="C47" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>248</v>
+      </c>
+      <c r="B48" t="s">
+        <v>249</v>
+      </c>
+      <c r="C48" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>251</v>
+      </c>
+      <c r="B49" t="s">
+        <v>252</v>
+      </c>
+      <c r="C49" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>183</v>
+      </c>
+      <c r="B50" t="s">
+        <v>254</v>
+      </c>
+      <c r="C50" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>189</v>
+      </c>
+      <c r="B51" t="s">
+        <v>255</v>
+      </c>
+      <c r="C51" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>256</v>
+      </c>
+      <c r="B52" t="s">
+        <v>257</v>
+      </c>
+      <c r="C52" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>258</v>
+      </c>
+      <c r="B53" t="s">
+        <v>259</v>
+      </c>
+      <c r="C53" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>261</v>
+      </c>
+      <c r="B54" t="s">
+        <v>262</v>
+      </c>
+      <c r="C54" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>264</v>
+      </c>
+      <c r="B55" t="s">
+        <v>265</v>
+      </c>
+      <c r="C55" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>267</v>
+      </c>
+      <c r="B56" t="s">
+        <v>268</v>
+      </c>
+      <c r="C56" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>186</v>
+      </c>
+      <c r="B57" t="s">
+        <v>270</v>
+      </c>
+      <c r="C57" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>237</v>
+      </c>
+      <c r="B58" t="s">
+        <v>272</v>
+      </c>
+      <c r="C58" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>240</v>
+      </c>
+      <c r="B59" t="s">
+        <v>274</v>
+      </c>
+      <c r="C59" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="21" x14ac:dyDescent="0.35">
+      <c r="A61" s="15" t="s">
+        <v>276</v>
+      </c>
+      <c r="B61" s="15"/>
+      <c r="C61" s="15"/>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="13" t="s">
+        <v>379</v>
+      </c>
+      <c r="B62" s="13"/>
+      <c r="C62" s="13"/>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="14"/>
+      <c r="B63" s="14"/>
+      <c r="C63" s="14"/>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>153</v>
+      </c>
+      <c r="B64" t="s">
+        <v>154</v>
+      </c>
+      <c r="C64" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>277</v>
+      </c>
+      <c r="B65" t="s">
+        <v>278</v>
+      </c>
+      <c r="C65" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>195</v>
+      </c>
+      <c r="B66" t="s">
+        <v>280</v>
+      </c>
+      <c r="C66" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>166</v>
+      </c>
+      <c r="B67" t="s">
+        <v>282</v>
+      </c>
+      <c r="C67" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>198</v>
+      </c>
+      <c r="B68" t="s">
+        <v>284</v>
+      </c>
+      <c r="C68" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>169</v>
+      </c>
+      <c r="B69" t="s">
+        <v>286</v>
+      </c>
+      <c r="C69" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>288</v>
+      </c>
+      <c r="B70" t="s">
+        <v>289</v>
+      </c>
+      <c r="C70" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>267</v>
+      </c>
+      <c r="B71" t="s">
+        <v>291</v>
+      </c>
+      <c r="C71" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>293</v>
+      </c>
+      <c r="B72" t="s">
+        <v>294</v>
+      </c>
+      <c r="C72" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>296</v>
+      </c>
+      <c r="B73" t="s">
+        <v>297</v>
+      </c>
+      <c r="C73" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>299</v>
+      </c>
+      <c r="B74" t="s">
+        <v>300</v>
+      </c>
+      <c r="C74" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="21" x14ac:dyDescent="0.35">
+      <c r="A76" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="B76" s="15"/>
+      <c r="C76" s="15"/>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="13" t="s">
+        <v>380</v>
+      </c>
+      <c r="B77" s="13"/>
+      <c r="C77" s="13"/>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="14"/>
+      <c r="B78" s="14"/>
+      <c r="C78" s="14"/>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>153</v>
+      </c>
+      <c r="B79" t="s">
+        <v>154</v>
+      </c>
+      <c r="C79" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>303</v>
+      </c>
+      <c r="B80" t="s">
+        <v>304</v>
+      </c>
+      <c r="C80" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>306</v>
+      </c>
+      <c r="B81" t="s">
+        <v>307</v>
+      </c>
+      <c r="C81" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>309</v>
+      </c>
+      <c r="B82" t="s">
+        <v>310</v>
+      </c>
+      <c r="C82" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>312</v>
+      </c>
+      <c r="B83" t="s">
+        <v>313</v>
+      </c>
+      <c r="C83" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>315</v>
+      </c>
+      <c r="B84" t="s">
+        <v>316</v>
+      </c>
+      <c r="C84" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>318</v>
+      </c>
+      <c r="B85" t="s">
+        <v>319</v>
+      </c>
+      <c r="C85" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>318</v>
+      </c>
+      <c r="B86" t="s">
+        <v>321</v>
+      </c>
+      <c r="C86" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>323</v>
+      </c>
+      <c r="B87" t="s">
+        <v>324</v>
+      </c>
+      <c r="C87" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>323</v>
+      </c>
+      <c r="B88" t="s">
+        <v>326</v>
+      </c>
+      <c r="C88" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="21" x14ac:dyDescent="0.35">
+      <c r="A90" s="15" t="s">
+        <v>328</v>
+      </c>
+      <c r="B90" s="15"/>
+      <c r="C90" s="15"/>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="13" t="s">
+        <v>381</v>
+      </c>
+      <c r="B91" s="13"/>
+      <c r="C91" s="13"/>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="14"/>
+      <c r="B92" s="14"/>
+      <c r="C92" s="14"/>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>153</v>
+      </c>
+      <c r="B93" t="s">
+        <v>154</v>
+      </c>
+      <c r="C93" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>329</v>
+      </c>
+      <c r="B94" t="s">
+        <v>330</v>
+      </c>
+      <c r="C94" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>332</v>
+      </c>
+      <c r="B95" t="s">
+        <v>333</v>
+      </c>
+      <c r="C95" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>335</v>
+      </c>
+      <c r="B96" t="s">
+        <v>336</v>
+      </c>
+      <c r="C96" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>338</v>
+      </c>
+      <c r="B97" t="s">
+        <v>339</v>
+      </c>
+      <c r="C97" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>318</v>
+      </c>
+      <c r="B98" t="s">
+        <v>341</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="21" x14ac:dyDescent="0.35">
+      <c r="A101" s="15" t="s">
+        <v>342</v>
+      </c>
+      <c r="B101" s="15"/>
+      <c r="C101" s="15"/>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" s="13" t="s">
+        <v>382</v>
+      </c>
+      <c r="B102" s="13"/>
+      <c r="C102" s="13"/>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" s="14"/>
+      <c r="B103" s="14"/>
+      <c r="C103" s="14"/>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>153</v>
+      </c>
+      <c r="B104" t="s">
+        <v>154</v>
+      </c>
+      <c r="C104" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>343</v>
+      </c>
+      <c r="B105" t="s">
+        <v>344</v>
+      </c>
+      <c r="C105" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>346</v>
+      </c>
+      <c r="B106" t="s">
+        <v>347</v>
+      </c>
+      <c r="C106" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>349</v>
+      </c>
+      <c r="B107" t="s">
+        <v>350</v>
+      </c>
+      <c r="C107" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>349</v>
+      </c>
+      <c r="B108" t="s">
+        <v>352</v>
+      </c>
+      <c r="C108" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>354</v>
+      </c>
+      <c r="B109" t="s">
+        <v>355</v>
+      </c>
+      <c r="C109" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>312</v>
+      </c>
+      <c r="B110" t="s">
+        <v>357</v>
+      </c>
+      <c r="C110" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>359</v>
+      </c>
+      <c r="B111" t="s">
+        <v>360</v>
+      </c>
+      <c r="C111" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>362</v>
+      </c>
+      <c r="B112" t="s">
+        <v>363</v>
+      </c>
+      <c r="C112" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>335</v>
+      </c>
+      <c r="B113" t="s">
+        <v>365</v>
+      </c>
+      <c r="C113" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>367</v>
+      </c>
+      <c r="B114" t="s">
+        <v>368</v>
+      </c>
+      <c r="C114" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>323</v>
+      </c>
+      <c r="B115" t="s">
+        <v>324</v>
+      </c>
+      <c r="C115" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>371</v>
+      </c>
+      <c r="B116" t="s">
+        <v>326</v>
+      </c>
+      <c r="C116" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>373</v>
+      </c>
+      <c r="B117" t="s">
+        <v>374</v>
+      </c>
+      <c r="C117" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>376</v>
+      </c>
+      <c r="B118" t="s">
+        <v>377</v>
+      </c>
+      <c r="C118" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" ht="21" x14ac:dyDescent="0.35">
+      <c r="A120" s="15" t="s">
+        <v>405</v>
+      </c>
+      <c r="B120" s="15"/>
+      <c r="C120" s="15"/>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" s="13" t="s">
+        <v>404</v>
+      </c>
+      <c r="B121" s="13"/>
+      <c r="C121" s="13"/>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>403</v>
+      </c>
+      <c r="B123" t="s">
+        <v>154</v>
+      </c>
+      <c r="C123" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B124" t="s">
+        <v>384</v>
+      </c>
+      <c r="C124" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B125" t="s">
+        <v>386</v>
+      </c>
+      <c r="C125" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B126" t="s">
+        <v>388</v>
+      </c>
+      <c r="C126" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B127" t="s">
+        <v>390</v>
+      </c>
+      <c r="C127" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B128" t="s">
+        <v>392</v>
+      </c>
+      <c r="C128" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="129" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B129" t="s">
+        <v>394</v>
+      </c>
+      <c r="C129" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="130" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B130" t="s">
+        <v>396</v>
+      </c>
+      <c r="C130" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="131" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B131" t="s">
+        <v>164</v>
+      </c>
+      <c r="C131" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="132" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B132" t="s">
+        <v>221</v>
+      </c>
+      <c r="C132" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="133" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B133" t="s">
+        <v>262</v>
+      </c>
+      <c r="C133" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="134" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B134" t="s">
+        <v>400</v>
+      </c>
+      <c r="C134" t="s">
+        <v>401</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="16">
+    <mergeCell ref="A101:C101"/>
+    <mergeCell ref="A102:C102"/>
+    <mergeCell ref="A121:C121"/>
+    <mergeCell ref="A120:C120"/>
+    <mergeCell ref="A61:C61"/>
+    <mergeCell ref="A62:C62"/>
+    <mergeCell ref="A76:C76"/>
+    <mergeCell ref="A77:C77"/>
+    <mergeCell ref="A90:C90"/>
+    <mergeCell ref="A91:C91"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="A44:C44"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="8">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId6"/>
+    <tablePart r:id="rId7"/>
+    <tablePart r:id="rId8"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D558F7EB-E056-405A-A9E9-F4D4B1436A1C}">
   <dimension ref="A1:B11"/>
   <sheetViews>
@@ -1537,7 +3685,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91D007DD-7056-427A-A23B-6B7DFE41F5B7}">
   <dimension ref="A1:B14"/>
   <sheetViews>
@@ -1547,120 +3695,119 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="100.7109375" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="33.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="100.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="6" customFormat="1" ht="95.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:2" s="5" customFormat="1" ht="95.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="6" customFormat="1" ht="95.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:2" s="5" customFormat="1" ht="95.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="4" spans="1:2" s="6" customFormat="1" ht="95.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+    <row r="4" spans="1:2" s="5" customFormat="1" ht="95.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="5" spans="1:2" s="6" customFormat="1" ht="95.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+    <row r="5" spans="1:2" s="5" customFormat="1" ht="95.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="6" spans="1:2" s="6" customFormat="1" ht="95.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+    <row r="6" spans="1:2" s="5" customFormat="1" ht="95.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="7" spans="1:2" s="6" customFormat="1" ht="95.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+    <row r="7" spans="1:2" s="5" customFormat="1" ht="95.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:2" s="6" customFormat="1" ht="95.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+    <row r="8" spans="1:2" s="5" customFormat="1" ht="95.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="9" spans="1:2" s="6" customFormat="1" ht="95.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+    <row r="9" spans="1:2" s="5" customFormat="1" ht="95.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="10" spans="1:2" s="6" customFormat="1" ht="95.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
+    <row r="10" spans="1:2" s="5" customFormat="1" ht="95.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="11" spans="1:2" s="6" customFormat="1" ht="95.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
+    <row r="11" spans="1:2" s="5" customFormat="1" ht="95.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="12" spans="1:2" s="6" customFormat="1" ht="95.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
+    <row r="12" spans="1:2" s="5" customFormat="1" ht="95.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="13" spans="1:2" s="6" customFormat="1" ht="95.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
+    <row r="13" spans="1:2" s="5" customFormat="1" ht="95.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="14" spans="1:2" s="6" customFormat="1" ht="95.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
+    <row r="14" spans="1:2" s="5" customFormat="1" ht="95.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>113</v>
       </c>
     </row>
@@ -1672,11 +3819,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFA46769-919C-40D7-9DF0-D99B7768E6F4}">
   <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+    <sheetView topLeftCell="A20" workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -1687,228 +3834,228 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="B1" s="10"/>
+      <c r="B1" s="12"/>
     </row>
     <row r="2" spans="1:2" ht="35.1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="9" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="11" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="11" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="11" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="11" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="11" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="11" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="11" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="B11" s="10"/>
+      <c r="B11" s="12"/>
     </row>
     <row r="12" spans="1:2" ht="35.1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="9" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="11" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="11" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="11" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="11" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="11" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="11" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="11" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="12" t="s">
+      <c r="A20" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="11" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="11" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="10" t="s">
+      <c r="A23" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="B23" s="10"/>
+      <c r="B23" s="12"/>
     </row>
     <row r="24" spans="1:2" ht="35.1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="9" t="s">
+      <c r="A24" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B24" s="11" t="s">
+      <c r="B24" s="9" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="12" t="s">
+      <c r="A25" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="B25" s="13" t="s">
+      <c r="B25" s="11" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="12" t="s">
+      <c r="A26" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="B26" s="13" t="s">
+      <c r="B26" s="11" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="12" t="s">
+      <c r="A27" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="B27" s="13" t="s">
+      <c r="B27" s="11" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="12" t="s">
+      <c r="A28" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="B28" s="13" t="s">
+      <c r="B28" s="11" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="12" t="s">
+      <c r="A29" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="B29" s="13" t="s">
+      <c r="B29" s="11" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="12" t="s">
+      <c r="A30" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="B30" s="13" t="s">
+      <c r="B30" s="11" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="12" t="s">
+      <c r="A31" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="B31" s="13" t="s">
+      <c r="B31" s="11" t="s">
         <v>137</v>
       </c>
     </row>
@@ -1927,7 +4074,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E9CDFF0-1A25-46D0-B8E0-21F36BDA316D}">
   <dimension ref="A1:B15"/>
   <sheetViews>
@@ -1937,128 +4084,127 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="100.7109375" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="39.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="100.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="6" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:2" s="5" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="6" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:2" s="5" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:2" s="6" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:2" s="5" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:2" s="6" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:2" s="5" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:2" s="6" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:2" s="5" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:2" s="6" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+    <row r="7" spans="1:2" s="5" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:2" s="6" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+    <row r="8" spans="1:2" s="5" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:2" s="6" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+    <row r="9" spans="1:2" s="5" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:2" s="6" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+    <row r="10" spans="1:2" s="5" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:2" s="6" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+    <row r="11" spans="1:2" s="5" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:2" s="6" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+    <row r="12" spans="1:2" s="5" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:2" s="6" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+    <row r="13" spans="1:2" s="5" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:2" s="6" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+    <row r="14" spans="1:2" s="5" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:2" s="6" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+    <row r="15" spans="1:2" s="5" customFormat="1" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="3" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2070,7 +4216,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEE23C48-0CD0-45BB-B941-F96D21DAB035}">
   <dimension ref="A1:B14"/>
   <sheetViews>
@@ -2085,114 +4231,114 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>67</v>
       </c>
     </row>
